--- a/retrieval/profiles/_profiles.xlsx
+++ b/retrieval/profiles/_profiles.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="173">
   <si>
     <t>Timestamp</t>
   </si>
@@ -359,19 +359,169 @@
     <t>Public transit, Biking</t>
   </si>
   <si>
+    <t>su.victor21@gmail.com</t>
+  </si>
+  <si>
+    <t>East Asian</t>
+  </si>
+  <si>
+    <t>Bachelor's degree</t>
+  </si>
+  <si>
+    <t>$60,000–$79,999</t>
+  </si>
+  <si>
+    <t>Employed part-time</t>
+  </si>
+  <si>
+    <t>English, Cantonese</t>
+  </si>
+  <si>
+    <t>Racial justice and equity, Gender equality</t>
+  </si>
+  <si>
+    <t>Minimum wage, Individual Tax Policy, Support for small businesses, Inflation response, Employment Insurance</t>
+  </si>
+  <si>
+    <t>Climate change, Sustainability, Carbon pricing</t>
+  </si>
+  <si>
+    <t>Reproductive rights, Pharmaceutical regulation, Healthcare system reform, Drug policy &amp; controlled substances, Health data &amp; privacy, Vaccination policy</t>
+  </si>
+  <si>
+    <t>Student debt, Access to education, Higher education funding and affordability, Early childhood education, Digital literacy</t>
+  </si>
+  <si>
+    <t>AI regulation, Data privacy, Cybersecurity, Access to internet, Content moderation, Telecom regulation, Intellectual property</t>
+  </si>
+  <si>
+    <t>Military spending, Foreign interference</t>
+  </si>
+  <si>
+    <t>Voting rights, Election security</t>
+  </si>
+  <si>
+    <t>Affordable housing, Public Infrastructure, Urban planning, Green building &amp; retrofitting</t>
+  </si>
+  <si>
+    <t>National security, Counter-terrorism</t>
+  </si>
+  <si>
+    <t>Public transit, Aviation safety, Rail regulation, Vehicle emissions, Autonomous vehicles, Electric Vehicles</t>
+  </si>
+  <si>
+    <t>pokhrelkripa@gmail.com</t>
+  </si>
+  <si>
+    <t>Born outside Canada</t>
+  </si>
+  <si>
+    <t>Living with family/friends (not paying rent)</t>
+  </si>
+  <si>
+    <t>Gender equality, Immigration policy, Refugee support, Freedom of speech, Charter of Rights and Freedoms</t>
+  </si>
+  <si>
+    <t>Support for small businesses, Inflation response</t>
+  </si>
+  <si>
+    <t>Climate change, Sustainability, Renewable energy investment, Carbon pricing, Recycling, Water protection</t>
+  </si>
+  <si>
+    <t>Mental health funding, Reproductive rights, Healthcare system reform, Drug policy &amp; controlled substances, MAiD (Medical Assistance in Dying), Health data &amp; privacy, Vaccination policy</t>
+  </si>
+  <si>
+    <t>Student debt, Access to education, Curriculum reform, Higher education funding and affordability, Indigenous education, Early childhood education</t>
+  </si>
+  <si>
+    <t>AI regulation, Data privacy, Cybersecurity, Access to internet</t>
+  </si>
+  <si>
+    <t>Affordable housing, Homelessness, Public Infrastructure, Urban planning, Green building &amp; retrofitting</t>
+  </si>
+  <si>
+    <t>Land rights &amp; treaties, Child welfare reform</t>
+  </si>
+  <si>
+    <t>Public transit, Aviation safety, Rail regulation, Vehicle emissions, Electric Vehicles, Biking</t>
+  </si>
+  <si>
     <t>sstirling1224@gmail.com</t>
   </si>
   <si>
-    <t>East Asian</t>
-  </si>
-  <si>
-    <t>Born outside Canada</t>
-  </si>
-  <si>
     <t>Homeowner</t>
   </si>
   <si>
-    <t>Racial justice and equity, Gender equality</t>
+    <t>Mental health funding, Reproductive rights</t>
+  </si>
+  <si>
+    <t>Affordable housing, Public Infrastructure</t>
+  </si>
+  <si>
+    <t>Human trafficking</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Education, law, and social services</t>
+  </si>
+  <si>
+    <t>Access to education, Higher education funding and affordability</t>
+  </si>
+  <si>
+    <t>AI regulation, Data privacy, Cybersecurity, Access to internet, Telecom regulation</t>
+  </si>
+  <si>
+    <t>Public Infrastructure, Green building &amp; retrofitting</t>
+  </si>
+  <si>
+    <t>Land rights &amp; treaties</t>
+  </si>
+  <si>
+    <t>Public transit, Vehicle emissions, Electric Vehicles</t>
+  </si>
+  <si>
+    <t>j29parma@uwaterloo.ca</t>
+  </si>
+  <si>
+    <t>Southeast Asian</t>
+  </si>
+  <si>
+    <t>Immigration policy, Criminal justice reform, Freedom of speech, Charter of Rights and Freedoms, Labor rights</t>
+  </si>
+  <si>
+    <t>Minimum wage, Corporate Tax Policy, Individual Tax Policy, Federal budget, Economic stimulus, Inflation response, Employment Insurance</t>
+  </si>
+  <si>
+    <t>Climate change, Renewable energy investment, Conservation, Resource extraction regulation, Water protection</t>
+  </si>
+  <si>
+    <t>Mental health funding, Reproductive rights, Pharmaceutical regulation, Healthcare system reform, Health data &amp; privacy</t>
+  </si>
+  <si>
+    <t>Student debt, Access to education, Curriculum reform, Higher education funding and affordability, Digital literacy</t>
+  </si>
+  <si>
+    <t>AI regulation, Data privacy, Intellectual property</t>
+  </si>
+  <si>
+    <t>International aid and development, Trade agreements, International organizations (UN, NATO, etc.), Sanctions</t>
+  </si>
+  <si>
+    <t>Voting rights, Gerrymandering and redistricting, Campaign finance reform</t>
+  </si>
+  <si>
+    <t>Affordable housing, Homelessness, Public Infrastructure, Urban planning</t>
+  </si>
+  <si>
+    <t>Child welfare reform</t>
+  </si>
+  <si>
+    <t>Disaster response, Border security, Human trafficking</t>
+  </si>
+  <si>
+    <t>Public transit, Rail regulation, Autonomous vehicles, Transportation Accessibility</t>
   </si>
   <si>
     <t>Climate change, Sustainability, Renewable energy investment, Conservation, Environmental justice, Carbon pricing</t>
@@ -381,51 +531,6 @@
   </si>
   <si>
     <t>Affordable housing, Public Infrastructure, Urban planning</t>
-  </si>
-  <si>
-    <t>su.victor21@gmail.com</t>
-  </si>
-  <si>
-    <t>Bachelor's degree</t>
-  </si>
-  <si>
-    <t>$60,000–$79,999</t>
-  </si>
-  <si>
-    <t>Employed part-time</t>
-  </si>
-  <si>
-    <t>English, Cantonese</t>
-  </si>
-  <si>
-    <t>Minimum wage, Individual Tax Policy, Support for small businesses, Inflation response, Employment Insurance</t>
-  </si>
-  <si>
-    <t>Climate change, Sustainability, Carbon pricing</t>
-  </si>
-  <si>
-    <t>Reproductive rights, Pharmaceutical regulation, Healthcare system reform, Drug policy &amp; controlled substances, Health data &amp; privacy, Vaccination policy</t>
-  </si>
-  <si>
-    <t>Student debt, Access to education, Higher education funding and affordability, Early childhood education, Digital literacy</t>
-  </si>
-  <si>
-    <t>AI regulation, Data privacy, Cybersecurity, Access to internet, Content moderation, Telecom regulation, Intellectual property</t>
-  </si>
-  <si>
-    <t>Military spending, Foreign interference</t>
-  </si>
-  <si>
-    <t>Voting rights, Election security</t>
-  </si>
-  <si>
-    <t>Affordable housing, Public Infrastructure, Urban planning, Green building &amp; retrofitting</t>
-  </si>
-  <si>
-    <t>National security, Counter-terrorism</t>
-  </si>
-  <si>
-    <t>Public transit, Aviation safety, Rail regulation, Vehicle emissions, Autonomous vehicles, Electric Vehicles</t>
   </si>
 </sst>
 </file>
@@ -456,7 +561,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -589,6 +694,48 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
@@ -630,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -667,16 +814,13 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -688,15 +832,6 @@
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -704,6 +839,15 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -773,7 +917,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AH8" displayName="Form_Responses2" name="Form_Responses2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AH11" displayName="Form_Responses2" name="Form_Responses2" id="1">
   <tableColumns count="34">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Please add the best email to send the follow-up form to." id="2"/>
@@ -1679,7 +1823,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8">
-        <v>45859.54847625</v>
+        <v>45859.55034981482</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>115</v>
@@ -1688,10 +1832,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>116</v>
@@ -1706,7 +1850,7 @@
         <v>41</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>43</v>
@@ -1721,13 +1865,13 @@
         <v>46</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>70</v>
@@ -1739,52 +1883,64 @@
         <v>52</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="X7" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="Y7" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="AE7" s="9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
+      <c r="AG7" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="AH7" s="11" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12">
-        <v>45859.55034981482</v>
+        <v>45859.71549379629</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>39</v>
@@ -1796,13 +1952,13 @@
         <v>41</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>45</v>
@@ -1811,13 +1967,10 @@
         <v>46</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="R8" s="13" t="s">
         <v>70</v>
@@ -1829,44 +1982,343 @@
         <v>52</v>
       </c>
       <c r="U8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15">
+        <v>45859.78455616898</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG9" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12">
+        <v>45860.39824775463</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="X10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="18">
+        <v>45860.448206817135</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y8" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH8" s="15" t="s">
-        <v>137</v>
+      <c r="V11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y11" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA11" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB11" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF11" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG11" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH11" s="20" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2125,549 +2577,549 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>45858.80137262732</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="17" t="s">
+      <c r="X3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="17" t="s">
+      <c r="AA3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="17" t="s">
+      <c r="AE3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19">
+      <c r="A4" s="12">
         <v>45858.86335151621</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="20" t="s">
+      <c r="L4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="20" t="s">
+      <c r="R4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="T4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" s="20" t="s">
+      <c r="T4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="X4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="AC4" s="20" t="s">
+      <c r="AC4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AD4" s="20" t="s">
+      <c r="AD4" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AG4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AH4" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>45858.86781303241</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="C5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="V5" s="17" t="s">
+      <c r="H5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" s="17" t="s">
+      <c r="AC5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AD5" s="17" t="s">
+      <c r="AD5" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="AE5" s="17" t="s">
+      <c r="AE5" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="AF5" s="17" t="s">
+      <c r="AF5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="AG5" s="17" t="s">
+      <c r="AG5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="AH5" s="18" t="s">
+      <c r="AH5" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19">
+      <c r="A6" s="12">
         <v>45859.54821439815</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="20" t="s">
+      <c r="Q6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="21" t="s">
+      <c r="AH6" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>45859.54847625</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="J7" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="R7" s="17" t="s">
+      <c r="P7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" s="17" t="s">
+      <c r="U7" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="V7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z7" s="17" t="s">
+      <c r="W7" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AE7" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH7" s="18" t="s">
+      <c r="Y7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z7" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE7" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH7" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="22">
+      <c r="A8" s="21">
         <v>45859.55034981482</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="W8" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="X8" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="23" t="s">
+      <c r="Z8" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="AA8" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="AB8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="23" t="s">
+      <c r="AC8" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="W8" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="X8" s="23" t="s">
+      <c r="AD8" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="AE8" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="AG8" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AA8" s="23" t="s">
+      <c r="AH8" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC8" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE8" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG8" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH8" s="24" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
